--- a/grade_Calculator.xlsx
+++ b/grade_Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1003427/Desktop/ite140/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A5710F-138E-EC44-AE87-BAA3A3D6E348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72565911-7928-DE43-8D43-793A84111F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{25C21161-1CB2-8245-95E8-CF4A226EF292}"/>
+    <workbookView xWindow="680" yWindow="500" windowWidth="27640" windowHeight="13700" activeTab="7" xr2:uid="{25C21161-1CB2-8245-95E8-CF4A226EF292}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Q4 Grade" sheetId="7" r:id="rId6"/>
     <sheet name="Final Grade" sheetId="4" r:id="rId7"/>
     <sheet name="Scenarios" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Letter_Grades">Tools!$A$1:$D$9</definedName>
@@ -2294,16 +2293,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C67BA3-16C6-014C-8AD6-E7311F20D596}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>